--- a/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `MedicationAdministration.effective[x]` 1..1 `dateTime, Period`
 Following are the generation technical comments:
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.
-Element `MedicationAdministration.occurence[x]` is mapped to FHIR R4 element `MedicationAdministration.effective[x]`.
+Element `MedicationAdministration.occurence[x]` has is mapped to FHIR R4 element `MedicationAdministration.effective[x]`, but has no comparisons.
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.occurence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `MedicationAdministration.effective[x]` 1..1 `dateTime, Period`
 Following are the generation technical comments:
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.
-Element `MedicationAdministration.occurence[x]` has is mapped to FHIR R4 element `MedicationAdministration.effective[x]`, but has no comparisons.
+Element `MedicationAdministration.occurence[x]` is mapped to FHIR R4 element `MedicationAdministration.effective[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
